--- a/data/trans_dic/P25A$preocupacion-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P25A$preocupacion-Clase-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05100106764812831</v>
+        <v>0.04867531188058142</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06415283110675947</v>
+        <v>0.06322022676711668</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05345213514621724</v>
+        <v>0.05238175052272644</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03826445672920676</v>
+        <v>0.03752306777070067</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02855227066948385</v>
+        <v>0.0297798451595116</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05000685342416026</v>
+        <v>0.05036466620814955</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.06716713161009696</v>
+        <v>0.06696645671617622</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05623329398756095</v>
+        <v>0.05600283025519073</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1634497297080506</v>
+        <v>0.1706227467603463</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2193399109139183</v>
+        <v>0.2079242640362105</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.200846442191359</v>
+        <v>0.2034621871386709</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1869360324166756</v>
+        <v>0.2097778569109589</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2085816938618423</v>
+        <v>0.2015303811278476</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1617042051106228</v>
+        <v>0.1652557274089609</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1529922423421315</v>
+        <v>0.1485155511690331</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.183228489599307</v>
+        <v>0.1782425985513327</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1587754211746648</v>
+        <v>0.1649390704126799</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03231596676454818</v>
+        <v>0.03414858243162375</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03610664624306242</v>
+        <v>0.04251049249895866</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07634507024508523</v>
+        <v>0.07030910040561819</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06424640723073602</v>
+        <v>0.06352939017185265</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03593279932472541</v>
+        <v>0.03703146449646404</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01497168546214469</v>
+        <v>0.01661579744136897</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05744514677600177</v>
+        <v>0.06685245727968135</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04975141718558716</v>
+        <v>0.05352193380732471</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05908629677149277</v>
+        <v>0.06114828636131447</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1753361137737152</v>
+        <v>0.1740971130291405</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.172699079068544</v>
+        <v>0.1714389273507715</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2646664542932538</v>
+        <v>0.2651314363825373</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3126308523229427</v>
+        <v>0.3156330831844175</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.232936648823638</v>
+        <v>0.2407859470415586</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1400392980299277</v>
+        <v>0.1378416306791061</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1858176244570559</v>
+        <v>0.1861362608181564</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1613584916553938</v>
+        <v>0.154400494310247</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1727088919727084</v>
+        <v>0.1789681212010578</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04693997781575569</v>
+        <v>0.04621490145856425</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01906563367327638</v>
+        <v>0.01863298475306172</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04703279239029687</v>
+        <v>0.04951620965183062</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0260362186897816</v>
+        <v>0.02766057639531495</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04763868144007292</v>
+        <v>0.04293906187600129</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02630817961409714</v>
+        <v>0.02724617050448735</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04700460821228612</v>
+        <v>0.04777038254590805</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1678085213469177</v>
+        <v>0.1577260251878354</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08283217348048903</v>
+        <v>0.08363808669808535</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1641008861567597</v>
+        <v>0.1608607584280278</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2137350334322924</v>
+        <v>0.1366537278649392</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2455299826823476</v>
+        <v>0.241328885368014</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2924713853821641</v>
+        <v>0.3427596388814302</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1463223664900868</v>
+        <v>0.1369298137629801</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.09080474307142616</v>
+        <v>0.09816198264613037</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1579746997145373</v>
+        <v>0.1546845636413444</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03907372115310925</v>
+        <v>0.04306756464899638</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04250206711629778</v>
+        <v>0.04703954515262871</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0756992124867536</v>
+        <v>0.07728524709667596</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03392343728116987</v>
+        <v>0.03633834641835132</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02096716459006843</v>
+        <v>0.02187485227706754</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0375382304233076</v>
+        <v>0.04095647060336943</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04947749340336821</v>
+        <v>0.04939123507152681</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07012752705707091</v>
+        <v>0.07027437362092442</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1010573713833756</v>
+        <v>0.1026975258365989</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1036852734279851</v>
+        <v>0.1046241838150481</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1602506293852335</v>
+        <v>0.1652550671145523</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1278555471634475</v>
+        <v>0.1301361702007765</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1331943041425698</v>
+        <v>0.138514892193152</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1144077240760736</v>
+        <v>0.115404962249859</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09429918332405963</v>
+        <v>0.09430740607574128</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09989001066141631</v>
+        <v>0.09876132597157872</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1375196373778355</v>
+        <v>0.1363989420745866</v>
       </c>
     </row>
     <row r="16">
@@ -1114,28 +1114,28 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04959584393943925</v>
+        <v>0.05279376250133189</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08257280574959505</v>
+        <v>0.07659594447300476</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02800299393950091</v>
+        <v>0.04604391200152098</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01351675867410965</v>
+        <v>0.01348606118725645</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08412524851368269</v>
+        <v>0.08524436825335432</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02083615261860302</v>
+        <v>0.02013294081197735</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04248417961287706</v>
+        <v>0.0438815775297174</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.09839102881346849</v>
+        <v>0.09808050760872693</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1125008541756553</v>
+        <v>0.1133310212354011</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1594988640598387</v>
+        <v>0.1554772452494759</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2191826311545581</v>
+        <v>0.2214799684200243</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2314748671102631</v>
+        <v>0.2523376145273066</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1540387991168318</v>
+        <v>0.1504724667705482</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2660483150213024</v>
+        <v>0.2691224421930218</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1218042930834919</v>
+        <v>0.1101518367277586</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1238219672741583</v>
+        <v>0.1294550556885903</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2097690111483156</v>
+        <v>0.2075864066157513</v>
       </c>
     </row>
     <row r="19">
@@ -1223,19 +1223,19 @@
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>0.02160485742660431</v>
+        <v>0.02113631109920483</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02175692503422683</v>
+        <v>0.01829635600185081</v>
       </c>
       <c r="H20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.02162381223831978</v>
+        <v>0.02192113594362826</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01952292548101172</v>
+        <v>0.01915650593769817</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>0</v>
@@ -1252,22 +1252,22 @@
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.1922486098433741</v>
+        <v>0.2119696604888235</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1965736899141227</v>
+        <v>0.1940601300542111</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1552503207828016</v>
+        <v>0.157783949600753</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1991671915179367</v>
+        <v>0.1773966157655353</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1803045485805833</v>
+        <v>0.1769979517491655</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1409523153760068</v>
+        <v>0.1592518501382705</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05753884142435089</v>
+        <v>0.05760187738543448</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05839703481592941</v>
+        <v>0.05980414876009399</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.09424151453348434</v>
+        <v>0.0942619723759392</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05250905725773924</v>
+        <v>0.04993539217509981</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.05605225892672154</v>
+        <v>0.05634039346365422</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.05401300734576368</v>
+        <v>0.05473736008776667</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.05853902283206163</v>
+        <v>0.06066935390689331</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.06430219115014373</v>
+        <v>0.06375627102134776</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.08759102525782519</v>
+        <v>0.08722292300202365</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.09855427964940947</v>
+        <v>0.09848583906708082</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.09904152582770405</v>
+        <v>0.09913319250345164</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1496453034013629</v>
+        <v>0.1483043487516094</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1257362427040537</v>
+        <v>0.1234401494342848</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1157518061827967</v>
+        <v>0.1178339105459648</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1145559216382596</v>
+        <v>0.1157126148914207</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.09554628010050832</v>
+        <v>0.09635887982680834</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.09801613638666609</v>
+        <v>0.09655043078068837</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1294368599174573</v>
+        <v>0.1269977989589943</v>
       </c>
     </row>
     <row r="25">
@@ -1607,31 +1607,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
+        <v>4667</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>7085</v>
+      </c>
+      <c r="E6" s="6" t="n">
         <v>4890</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>7190</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>4990</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1978</v>
+        <v>1940</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1753</v>
+        <v>1828</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6698</v>
+        <v>6746</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>11000</v>
+        <v>10967</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>8702</v>
+        <v>8666</v>
       </c>
     </row>
     <row r="7">
@@ -1642,31 +1642,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>15671</v>
+        <v>16359</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>24582</v>
+        <v>23302</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>18749</v>
+        <v>18994</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>7116</v>
+        <v>7986</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>10783</v>
+        <v>10419</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>9928</v>
+        <v>10146</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>20493</v>
+        <v>19893</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>30007</v>
+        <v>29190</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>24570</v>
+        <v>25524</v>
       </c>
     </row>
     <row r="8">
@@ -1751,31 +1751,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2580</v>
+        <v>2726</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3247</v>
+        <v>3823</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5562</v>
+        <v>5122</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2600</v>
+        <v>2571</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1942</v>
+        <v>2002</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1002</v>
+        <v>1112</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>6911</v>
+        <v>8042</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>7163</v>
+        <v>7706</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>8259</v>
+        <v>8548</v>
       </c>
     </row>
     <row r="11">
@@ -1786,31 +1786,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>13998</v>
+        <v>13900</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>15529</v>
+        <v>15416</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>19282</v>
+        <v>19316</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>12650</v>
+        <v>12771</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>12592</v>
+        <v>13017</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>9373</v>
+        <v>9226</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>22354</v>
+        <v>22392</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>23232</v>
+        <v>22231</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>24142</v>
+        <v>25017</v>
       </c>
     </row>
     <row r="12">
@@ -1895,31 +1895,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5009</v>
+        <v>4931</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3088</v>
+        <v>3018</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4623</v>
+        <v>4867</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>916</v>
+        <v>973</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6244</v>
+        <v>5628</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>5187</v>
+        <v>5372</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>5240</v>
+        <v>5325</v>
       </c>
     </row>
     <row r="15">
@@ -1930,31 +1930,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>17906</v>
+        <v>16830</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>13418</v>
+        <v>13548</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>16128</v>
+        <v>15810</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5210</v>
+        <v>3331</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8635</v>
+        <v>8488</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3857</v>
+        <v>4521</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>19180</v>
+        <v>17949</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>17903</v>
+        <v>19354</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>17610</v>
+        <v>17243</v>
       </c>
     </row>
     <row r="16">
@@ -2039,31 +2039,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>10633</v>
+        <v>11720</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>13555</v>
+        <v>15003</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>17240</v>
+        <v>17601</v>
       </c>
       <c r="F18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3838</v>
+        <v>4112</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1817</v>
+        <v>1896</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>12593</v>
+        <v>13739</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>21379</v>
+        <v>21341</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>22049</v>
+        <v>22095</v>
       </c>
     </row>
     <row r="19">
@@ -2074,31 +2074,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>27500</v>
+        <v>27946</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>33069</v>
+        <v>33369</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>36496</v>
+        <v>37636</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>8099</v>
+        <v>8243</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>15071</v>
+        <v>15673</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>9916</v>
+        <v>10003</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>31634</v>
+        <v>31637</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>43161</v>
+        <v>42673</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>43238</v>
+        <v>42886</v>
       </c>
     </row>
     <row r="20">
@@ -2186,28 +2186,28 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>6306</v>
+        <v>6712</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>8893</v>
+        <v>8249</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>994</v>
+        <v>1634</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>5905</v>
+        <v>5984</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2065</v>
+        <v>1995</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>8352</v>
+        <v>8627</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>17503</v>
+        <v>17447</v>
       </c>
     </row>
     <row r="23">
@@ -2218,31 +2218,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>7154</v>
+        <v>7206</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>20278</v>
+        <v>19767</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>23604</v>
+        <v>23852</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>8217</v>
+        <v>8957</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>10698</v>
+        <v>10450</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>18676</v>
+        <v>18892</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>12069</v>
+        <v>10914</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>24342</v>
+        <v>25449</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>37316</v>
+        <v>36927</v>
       </c>
     </row>
     <row r="24">
@@ -2330,19 +2330,19 @@
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>1058</v>
+        <v>1035</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1326</v>
+        <v>1115</v>
       </c>
       <c r="H26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1179</v>
+        <v>1195</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1307</v>
+        <v>1283</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>0</v>
@@ -2359,22 +2359,22 @@
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>9418</v>
+        <v>10384</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>11979</v>
+        <v>11826</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>5610</v>
+        <v>5702</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>10858</v>
+        <v>9671</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>12072</v>
+        <v>11851</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>5879</v>
+        <v>6642</v>
       </c>
     </row>
     <row r="28">
@@ -2459,31 +2459,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>35884</v>
+        <v>35924</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>47656</v>
+        <v>48805</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>57063</v>
+        <v>57075</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>13166</v>
+        <v>12521</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>21550</v>
+        <v>21661</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>18069</v>
+        <v>18311</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>51186</v>
+        <v>53049</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>77197</v>
+        <v>76542</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>82337</v>
+        <v>81991</v>
       </c>
     </row>
     <row r="31">
@@ -2494,31 +2494,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>61464</v>
+        <v>61421</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>80825</v>
+        <v>80900</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>90609</v>
+        <v>89798</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>31526</v>
+        <v>30951</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>44502</v>
+        <v>45303</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>38322</v>
+        <v>38709</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>83545</v>
+        <v>84255</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>117672</v>
+        <v>115912</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>121673</v>
+        <v>119380</v>
       </c>
     </row>
     <row r="32">
